--- a/12.xlsx
+++ b/12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,69 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>陳澤榮</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>成功高中</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>timothychenpc@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0902115275</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>H190009482</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0908602775</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>A123456789</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>葷</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12.xlsx
+++ b/12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,30 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>家人手機</t>
+          <t>監護人姓名</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>家人身分證字號</t>
+          <t>監護人手機</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>與家人關係</t>
+          <t>監護人身分證字號</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>與監護人關係</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>葷素</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>重大疾病</t>
         </is>
@@ -543,25 +548,30 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0979664458</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>C220867855</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>母</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>葷</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>無</t>
         </is>
@@ -610,25 +620,30 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>追</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0908602775</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>A123456789</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>H190009482</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>葷</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12.xlsx
+++ b/12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,74 +577,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>陳澤榮</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>成功高中</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022-07-13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>timothychenpc@gmail.com</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0902115275</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>H190009482</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>追</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0908602775</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>H190009482</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>葷</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
